--- a/taps_14.xlsx
+++ b/taps_14.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>tapNumber</t>
   </si>
@@ -31,10 +31,16 @@
     <t>abv</t>
   </si>
   <si>
+    <t>price010</t>
+  </si>
+  <si>
+    <t>price020</t>
+  </si>
+  <si>
     <t>price025</t>
   </si>
   <si>
-    <t>price033</t>
+    <t>price030</t>
   </si>
   <si>
     <t>price040</t>
@@ -182,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -193,6 +199,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
@@ -213,16 +220,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -230,7 +240,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -285,20 +295,24 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -319,26 +333,24 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>270.0</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -361,30 +373,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>43.0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>0.06</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>210.0</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>260.0</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -405,30 +415,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.06</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>210.0</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>260.0</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -449,26 +457,27 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>30.0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G5" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>250.0</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -491,30 +500,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>40.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>280.0</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
         <v>350.0</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -535,30 +542,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>15.0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.05</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>200.0</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>230.0</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -579,30 +584,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>0.07</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3">
         <v>230.0</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
         <v>260.0</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -622,31 +625,29 @@
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>0.07</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>280.0</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
         <v>320.0</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -666,27 +667,25 @@
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>26.0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <v>250.0</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -709,30 +708,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>40.0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>280.0</v>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
         <v>320.0</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -753,26 +750,24 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>20.0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.08</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <v>290.0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -795,25 +790,23 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>25.0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>0.1</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>300.0</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -837,30 +830,28 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>110.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>250.0</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
         <v>290.0</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -881,30 +872,28 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <v>33.0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>0.07</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>220.0</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <v>270.0</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -954,7 +943,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -983,7 +972,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
